--- a/data/Products.xlsx
+++ b/data/Products.xlsx
@@ -397,13 +397,163 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:L4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetData/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="str">
+        <v>name</v>
+      </c>
+      <c r="B1" t="str">
+        <v>sku</v>
+      </c>
+      <c r="C1" t="str">
+        <v>category</v>
+      </c>
+      <c r="D1" t="str">
+        <v>price</v>
+      </c>
+      <c r="E1" t="str">
+        <v>cost_price</v>
+      </c>
+      <c r="F1" t="str">
+        <v>stock_quantity</v>
+      </c>
+      <c r="G1" t="str">
+        <v>unit</v>
+      </c>
+      <c r="H1" t="str">
+        <v>hsn_code</v>
+      </c>
+      <c r="I1" t="str">
+        <v>gst_rate</v>
+      </c>
+      <c r="J1" t="str">
+        <v>is_active</v>
+      </c>
+      <c r="K1" t="str">
+        <v>id</v>
+      </c>
+      <c r="L1" t="str">
+        <v>description</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="str">
+        <v>Test Widget</v>
+      </c>
+      <c r="B2" t="str">
+        <v>SKU-100</v>
+      </c>
+      <c r="C2" t="str">
+        <v>UnitTest</v>
+      </c>
+      <c r="D2">
+        <v>99</v>
+      </c>
+      <c r="E2">
+        <v>80</v>
+      </c>
+      <c r="F2">
+        <v>10</v>
+      </c>
+      <c r="G2" t="str">
+        <v>piece</v>
+      </c>
+      <c r="H2" t="str">
+        <v>9901</v>
+      </c>
+      <c r="I2">
+        <v>18</v>
+      </c>
+      <c r="J2" t="b">
+        <v>1</v>
+      </c>
+      <c r="K2" t="str">
+        <v>5d3821c0-8d44-4733-8fe3-786c898948b1</v>
+      </c>
+      <c r="L2" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="str">
+        <v>Hassan mansuri</v>
+      </c>
+      <c r="B3" t="str">
+        <v>4</v>
+      </c>
+      <c r="C3" t="str">
+        <v/>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3" t="str">
+        <v>piece</v>
+      </c>
+      <c r="H3" t="str">
+        <v>3243</v>
+      </c>
+      <c r="I3">
+        <v>18</v>
+      </c>
+      <c r="J3" t="b">
+        <v>1</v>
+      </c>
+      <c r="K3" t="str">
+        <v>b8a778da-786f-4741-80a3-f42a37f8bde6</v>
+      </c>
+      <c r="L3" t="str">
+        <v>dfgrhah regerge</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="str">
+        <v>Test Widget</v>
+      </c>
+      <c r="B4" t="str">
+        <v>SKU-100</v>
+      </c>
+      <c r="C4" t="str">
+        <v>UnitTest</v>
+      </c>
+      <c r="D4">
+        <v>99</v>
+      </c>
+      <c r="E4">
+        <v>80</v>
+      </c>
+      <c r="F4">
+        <v>10</v>
+      </c>
+      <c r="G4" t="str">
+        <v>piece</v>
+      </c>
+      <c r="H4" t="str">
+        <v>9901</v>
+      </c>
+      <c r="I4">
+        <v>18</v>
+      </c>
+      <c r="J4" t="b">
+        <v>1</v>
+      </c>
+      <c r="K4" t="str">
+        <v>3f441215-d35d-4111-acd6-cdcf5fa68555</v>
+      </c>
+    </row>
+  </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:L4"/>
   </ignoredErrors>
 </worksheet>
 </file>